--- a/homeworks/CF_HW_5_2021_Ans.xlsx
+++ b/homeworks/CF_HW_5_2021_Ans.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11117"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FD2B4F6-561B-8844-BD20-A6CEFF1A6BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B287B-D7ED-0745-9D50-481DB219A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="460" windowWidth="24060" windowHeight="25020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21420" yWindow="500" windowWidth="24060" windowHeight="25020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
     <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Answers!$B$2:$F$142</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Answers!$B$2:$F$146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
   <si>
     <t>Rate</t>
   </si>
@@ -744,9 +744,6 @@
     <t>Taxes: Unlevered NI * ETR   This is a bit tricky: should we use the statutory rates (21% + state?) or ETR from the IncS?  Here I use ETR.</t>
   </si>
   <si>
-    <t>I just used the net changes in assets in liabilities from the CFS</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -784,15 +781,6 @@
     <t>AP (BS)</t>
   </si>
   <si>
-    <t>AMZN gets cash from customers in 23 days but only pays its suppliers in 69 days.  A great business!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: It is not uncommon to use the average shares outstanding, especially if there has been a significant change during the year. </t>
-  </si>
-  <si>
-    <t>Total Shares Outstanding</t>
-  </si>
-  <si>
     <t>Total Equity (from BS)</t>
   </si>
   <si>
@@ -806,6 +794,33 @@
   </si>
   <si>
     <t>this approach implicitly uses the effective tax rate (accounting tax rate).</t>
+  </si>
+  <si>
+    <t>AMZN gets cash from customers in 23 days but only pays its suppliers in 113 days.  A great business!</t>
+  </si>
+  <si>
+    <t>COGS  (IS) [I had incorrectly used Sales before instead of Cost of Sales]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Shares Outstanding.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: It is not uncommon to use the average shares outstanding, especially if there has been a significant change during the year.   For AMZN, this is 500 (from the IS.) Nonvested shares aren't included in the basic EPS calculation, but can be included in the diluted EPS.  </t>
+  </si>
+  <si>
+    <t>AMZN (p. 60) tells us that the total CS are 518, which includes vested, unvested, and stock awared estimated to be forfeited.</t>
+  </si>
+  <si>
+    <t>For this calculation, I just use the shares on the BS.</t>
+  </si>
+  <si>
+    <t>Probably better to use change in Cur Ass - Cur Liab.  Before I jused the net changes in assets and liabilities from the CFS</t>
+  </si>
+  <si>
+    <t>This number is ok, but since it includes estimated forfeited stk, I might not use it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book value isn't generally isn't too useful, especially if the stock is publicly traded. </t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1105,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1480,10 +1495,25 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q232"/>
+  <dimension ref="B2:Q236"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A185" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3651,8 +3681,8 @@
     <row r="112" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B112" s="122"/>
       <c r="C112" s="125"/>
-      <c r="D112" s="175"/>
-      <c r="E112" s="175"/>
+      <c r="D112" s="176"/>
+      <c r="E112" s="176"/>
       <c r="M112" s="52"/>
     </row>
     <row r="113" spans="2:13" s="24" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -3752,485 +3782,493 @@
       <c r="C125" s="83"/>
       <c r="F125" s="87"/>
     </row>
-    <row r="126" spans="2:13" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:13" s="24" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="B126" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="D126" s="140" t="s">
-        <v>185</v>
+      <c r="D126" s="182" t="s">
+        <v>191</v>
       </c>
       <c r="E126" s="140"/>
       <c r="F126" s="167"/>
     </row>
     <row r="127" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="166"/>
-      <c r="C127" s="140"/>
-      <c r="D127" s="140"/>
-      <c r="E127" s="140"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="175"/>
+      <c r="D127" s="175"/>
+      <c r="E127" s="175"/>
       <c r="F127" s="167"/>
     </row>
-    <row r="128" spans="2:13" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B128" s="166"/>
-      <c r="C128" s="57">
-        <v>93404</v>
-      </c>
-      <c r="D128" s="140" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="140"/>
-      <c r="F128" s="167"/>
-    </row>
-    <row r="129" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B129" s="166"/>
-      <c r="C129" s="173">
-        <v>503</v>
-      </c>
-      <c r="D129" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="E129" s="140"/>
-      <c r="F129" s="167"/>
-    </row>
-    <row r="130" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B130" s="166"/>
-      <c r="C130" s="162">
-        <f>C128/C129</f>
-        <v>185.6938369781312</v>
-      </c>
-      <c r="D130" s="146" t="s">
-        <v>188</v>
-      </c>
-      <c r="E130" s="140"/>
-      <c r="F130" s="167"/>
-    </row>
-    <row r="131" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="141"/>
+      <c r="C128" s="175"/>
+      <c r="D128" s="180" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" s="182"/>
+      <c r="F128" s="183"/>
+    </row>
+    <row r="129" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="141"/>
+      <c r="C129" s="175"/>
+      <c r="D129" s="180" t="s">
+        <v>195</v>
+      </c>
+      <c r="E129" s="182"/>
+      <c r="F129" s="183"/>
+    </row>
+    <row r="130" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="141"/>
+      <c r="C130" s="175"/>
+      <c r="D130" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="E130" s="182"/>
+      <c r="F130" s="183"/>
+    </row>
+    <row r="131" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B131" s="166"/>
       <c r="C131" s="140"/>
-      <c r="D131" s="140"/>
+      <c r="D131" s="175" t="s">
+        <v>193</v>
+      </c>
       <c r="E131" s="140"/>
       <c r="F131" s="167"/>
     </row>
     <row r="132" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B132" s="166"/>
-      <c r="C132" s="150">
-        <v>3540</v>
-      </c>
-      <c r="D132" s="146" t="s">
-        <v>136</v>
+      <c r="C132" s="57">
+        <v>93404</v>
+      </c>
+      <c r="D132" s="140" t="s">
+        <v>183</v>
       </c>
       <c r="E132" s="140"/>
       <c r="F132" s="167"/>
     </row>
-    <row r="133" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B133" s="166"/>
-      <c r="C133" s="140"/>
-      <c r="D133" s="140"/>
+      <c r="C133" s="173">
+        <v>503</v>
+      </c>
+      <c r="D133" s="140" t="s">
+        <v>190</v>
+      </c>
       <c r="E133" s="140"/>
       <c r="F133" s="167"/>
     </row>
-    <row r="134" spans="2:6" s="24" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B134" s="166"/>
-      <c r="C134" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="D134" s="176"/>
+      <c r="C134" s="162">
+        <f>C132/C133</f>
+        <v>185.6938369781312</v>
+      </c>
+      <c r="D134" s="146" t="s">
+        <v>184</v>
+      </c>
       <c r="E134" s="140"/>
       <c r="F134" s="167"/>
     </row>
     <row r="135" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B135" s="166"/>
-      <c r="C135" s="176" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="176"/>
+      <c r="C135" s="140"/>
+      <c r="D135" s="140"/>
       <c r="E135" s="140"/>
       <c r="F135" s="167"/>
     </row>
-    <row r="136" spans="2:6" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B136" s="166"/>
-      <c r="C136" s="176"/>
-      <c r="D136" s="176"/>
+      <c r="C136" s="150">
+        <v>3540</v>
+      </c>
+      <c r="D136" s="146" t="s">
+        <v>136</v>
+      </c>
       <c r="E136" s="140"/>
       <c r="F136" s="167"/>
     </row>
     <row r="137" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B137" s="166"/>
-      <c r="C137" s="176"/>
-      <c r="D137" s="176"/>
-      <c r="F137" s="87"/>
-    </row>
-    <row r="138" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="140"/>
+      <c r="D137" s="140"/>
+      <c r="E137" s="140"/>
+      <c r="F137" s="167"/>
+    </row>
+    <row r="138" spans="2:6" s="24" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B138" s="166"/>
-      <c r="C138" s="140"/>
-      <c r="D138" s="140"/>
-      <c r="F138" s="87"/>
-    </row>
-    <row r="139" spans="2:6" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="B139" s="141" t="s">
-        <v>100</v>
-      </c>
-      <c r="C139" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" s="140" t="s">
-        <v>125</v>
-      </c>
+      <c r="C138" s="177" t="s">
+        <v>159</v>
+      </c>
+      <c r="D138" s="177"/>
+      <c r="E138" s="140"/>
+      <c r="F138" s="167"/>
+    </row>
+    <row r="139" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="166"/>
+      <c r="C139" s="177" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" s="177"/>
       <c r="E139" s="140"/>
       <c r="F139" s="167"/>
     </row>
-    <row r="140" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="141"/>
-      <c r="C140" s="147"/>
-      <c r="D140" s="140"/>
+    <row r="140" spans="2:6" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="166"/>
+      <c r="C140" s="177"/>
+      <c r="D140" s="177"/>
       <c r="E140" s="140"/>
       <c r="F140" s="167"/>
     </row>
-    <row r="141" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B141" s="141" t="s">
-        <v>101</v>
-      </c>
-      <c r="C141" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="D141" s="140"/>
-      <c r="E141" s="140"/>
-      <c r="F141" s="167"/>
-    </row>
-    <row r="142" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="166"/>
+      <c r="C141" s="177"/>
+      <c r="D141" s="177"/>
+      <c r="F141" s="87"/>
+    </row>
+    <row r="142" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="166"/>
-      <c r="C142" s="171">
-        <v>386064</v>
-      </c>
-      <c r="D142" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="E142" s="140"/>
-      <c r="F142" s="167"/>
-    </row>
-    <row r="143" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B143" s="166"/>
-      <c r="C143" s="172">
-        <v>233307</v>
+      <c r="C142" s="140"/>
+      <c r="D142" s="140"/>
+      <c r="F142" s="87"/>
+    </row>
+    <row r="143" spans="2:6" s="24" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="B143" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="147" t="s">
+        <v>124</v>
       </c>
       <c r="D143" s="140" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E143" s="140"/>
       <c r="F143" s="167"/>
     </row>
-    <row r="144" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B144" s="166"/>
-      <c r="C144" s="157">
-        <f>(C142-C143)/C142</f>
-        <v>0.3956779186870571</v>
-      </c>
-      <c r="D144" s="146" t="s">
-        <v>137</v>
-      </c>
+    <row r="144" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="141"/>
+      <c r="C144" s="147"/>
+      <c r="D144" s="140"/>
       <c r="E144" s="140"/>
       <c r="F144" s="167"/>
     </row>
-    <row r="145" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="166"/>
-      <c r="C145" s="140"/>
+    <row r="145" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B145" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="140" t="s">
+        <v>126</v>
+      </c>
       <c r="D145" s="140"/>
       <c r="E145" s="140"/>
       <c r="F145" s="167"/>
     </row>
-    <row r="146" spans="2:6" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B146" s="166"/>
-      <c r="F146" s="87"/>
-    </row>
-    <row r="147" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B147" s="141" t="s">
-        <v>36</v>
-      </c>
-      <c r="C147" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="D147" s="19"/>
-      <c r="F147" s="87"/>
-    </row>
-    <row r="148" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="171">
+        <v>386064</v>
+      </c>
+      <c r="D146" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="E146" s="140"/>
+      <c r="F146" s="167"/>
+    </row>
+    <row r="147" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B147" s="166"/>
+      <c r="C147" s="172">
+        <v>233307</v>
+      </c>
+      <c r="D147" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E147" s="140"/>
+      <c r="F147" s="167"/>
+    </row>
+    <row r="148" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B148" s="166"/>
-      <c r="F148" s="87"/>
+      <c r="C148" s="157">
+        <f>(C146-C147)/C146</f>
+        <v>0.3956779186870571</v>
+      </c>
+      <c r="D148" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" s="140"/>
+      <c r="F148" s="167"/>
     </row>
     <row r="149" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="166"/>
-      <c r="C149" s="57">
-        <v>22899</v>
-      </c>
-      <c r="D149" s="174" t="s">
-        <v>141</v>
-      </c>
-      <c r="F149" s="87"/>
-    </row>
-    <row r="150" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="140"/>
+      <c r="D149" s="140"/>
+      <c r="E149" s="140"/>
+      <c r="F149" s="167"/>
+    </row>
+    <row r="150" spans="2:6" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="166"/>
-      <c r="C150" s="153">
-        <v>25251</v>
-      </c>
-      <c r="D150" s="83" t="s">
-        <v>127</v>
-      </c>
       <c r="F150" s="87"/>
     </row>
-    <row r="151" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="166"/>
-      <c r="C151" s="158">
-        <f>C150+C149</f>
-        <v>48150</v>
-      </c>
-      <c r="D151" s="117" t="s">
-        <v>128</v>
-      </c>
+    <row r="151" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B151" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D151" s="19"/>
       <c r="F151" s="87"/>
     </row>
     <row r="152" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B152" s="166"/>
-      <c r="C152" s="58"/>
-      <c r="D152" s="86"/>
       <c r="F152" s="87"/>
     </row>
-    <row r="153" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="166"/>
-      <c r="C153" s="143" t="s">
-        <v>143</v>
+      <c r="C153" s="57">
+        <v>22899</v>
+      </c>
+      <c r="D153" s="174" t="s">
+        <v>141</v>
       </c>
       <c r="F153" s="87"/>
     </row>
     <row r="154" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="166"/>
-      <c r="C154" s="57">
-        <f>C151</f>
-        <v>48150</v>
+      <c r="C154" s="153">
+        <v>25251</v>
       </c>
       <c r="D154" s="83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F154" s="87"/>
     </row>
     <row r="155" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="166"/>
-      <c r="C155" s="153">
+      <c r="C155" s="158">
+        <f>C154+C153</f>
+        <v>48150</v>
+      </c>
+      <c r="D155" s="117" t="s">
+        <v>128</v>
+      </c>
+      <c r="F155" s="87"/>
+    </row>
+    <row r="156" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="166"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="86"/>
+      <c r="F156" s="87"/>
+    </row>
+    <row r="157" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B157" s="166"/>
+      <c r="C157" s="143" t="s">
+        <v>143</v>
+      </c>
+      <c r="F157" s="87"/>
+    </row>
+    <row r="158" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="166"/>
+      <c r="C158" s="57">
+        <f>C155</f>
+        <v>48150</v>
+      </c>
+      <c r="D158" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="F158" s="87"/>
+    </row>
+    <row r="159" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="166"/>
+      <c r="C159" s="153">
         <f>386064</f>
         <v>386064</v>
       </c>
-      <c r="D155" s="83" t="s">
+      <c r="D159" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="F155" s="87"/>
-    </row>
-    <row r="156" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="166"/>
-      <c r="C156" s="62">
-        <f>C154/C155</f>
+      <c r="F159" s="87"/>
+    </row>
+    <row r="160" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="166"/>
+      <c r="C160" s="62">
+        <f>C158/C159</f>
         <v>0.12472025363670272</v>
       </c>
-      <c r="D156" s="117" t="s">
+      <c r="D160" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="F156" s="87"/>
-    </row>
-    <row r="157" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="166"/>
-      <c r="F157" s="87"/>
-    </row>
-    <row r="158" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B158" s="142" t="s">
+      <c r="F160" s="87"/>
+    </row>
+    <row r="161" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="166"/>
+      <c r="F161" s="87"/>
+    </row>
+    <row r="162" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B162" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="C158" s="151" t="s">
+      <c r="C162" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="F158" s="87"/>
-    </row>
-    <row r="159" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="166"/>
-      <c r="C159" s="57">
+      <c r="F162" s="87"/>
+    </row>
+    <row r="163" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="166"/>
+      <c r="C163" s="57">
         <f>22899</f>
         <v>22899</v>
       </c>
-      <c r="D159" s="53" t="s">
+      <c r="D163" s="53" t="s">
         <v>144</v>
-      </c>
-      <c r="F159" s="87"/>
-    </row>
-    <row r="160" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="166"/>
-      <c r="C160" s="153">
-        <v>386064</v>
-      </c>
-      <c r="D160" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="F160" s="87"/>
-    </row>
-    <row r="161" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="166"/>
-      <c r="C161" s="62">
-        <f>C159/C160</f>
-        <v>5.9313999751336569E-2</v>
-      </c>
-      <c r="D161" s="117" t="s">
-        <v>146</v>
-      </c>
-      <c r="F161" s="87"/>
-    </row>
-    <row r="162" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="166"/>
-      <c r="F162" s="87"/>
-    </row>
-    <row r="163" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B163" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="C163" s="149" t="s">
-        <v>147</v>
       </c>
       <c r="F163" s="87"/>
     </row>
     <row r="164" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="166"/>
-      <c r="C164" s="57">
-        <v>21331</v>
+      <c r="C164" s="153">
+        <v>386064</v>
       </c>
       <c r="D164" s="53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F164" s="87"/>
     </row>
     <row r="165" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="166"/>
-      <c r="C165" s="153">
-        <v>386064</v>
-      </c>
-      <c r="D165" s="53" t="s">
-        <v>149</v>
+      <c r="C165" s="62">
+        <f>C163/C164</f>
+        <v>5.9313999751336569E-2</v>
+      </c>
+      <c r="D165" s="117" t="s">
+        <v>146</v>
       </c>
       <c r="F165" s="87"/>
     </row>
     <row r="166" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="166"/>
-      <c r="C166" s="62">
-        <f>C164/C165</f>
-        <v>5.5252496995316841E-2</v>
-      </c>
-      <c r="D166" s="117" t="s">
-        <v>150</v>
-      </c>
       <c r="F166" s="87"/>
     </row>
-    <row r="167" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="166"/>
+    <row r="167" spans="2:6" s="24" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B167" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C167" s="149" t="s">
+        <v>147</v>
+      </c>
       <c r="F167" s="87"/>
     </row>
     <row r="168" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B168" s="166"/>
+      <c r="C168" s="57">
+        <v>21331</v>
+      </c>
+      <c r="D168" s="53" t="s">
+        <v>148</v>
+      </c>
       <c r="F168" s="87"/>
     </row>
     <row r="169" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B169" s="166"/>
+      <c r="C169" s="153">
+        <v>386064</v>
+      </c>
+      <c r="D169" s="53" t="s">
+        <v>149</v>
+      </c>
       <c r="F169" s="87"/>
     </row>
     <row r="170" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="C170" s="117" t="s">
-        <v>130</v>
+      <c r="B170" s="166"/>
+      <c r="C170" s="62">
+        <f>C168/C169</f>
+        <v>5.5252496995316841E-2</v>
+      </c>
+      <c r="D170" s="117" t="s">
+        <v>150</v>
       </c>
       <c r="F170" s="87"/>
     </row>
     <row r="171" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B171" s="166"/>
-      <c r="C171" s="158">
+      <c r="F171" s="87"/>
+    </row>
+    <row r="172" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="166"/>
+      <c r="F172" s="87"/>
+    </row>
+    <row r="173" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="166"/>
+      <c r="F173" s="87"/>
+    </row>
+    <row r="174" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="C174" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="F174" s="87"/>
+    </row>
+    <row r="175" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="166"/>
+      <c r="C175" s="158">
         <f>363165-233307</f>
         <v>129858</v>
       </c>
-      <c r="D171" s="117" t="s">
+      <c r="D175" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="F171" s="87"/>
-    </row>
-    <row r="172" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="166"/>
-      <c r="D172" s="19"/>
-      <c r="F172" s="87"/>
-    </row>
-    <row r="173" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="166"/>
-      <c r="C173" s="55" t="s">
+      <c r="F175" s="87"/>
+    </row>
+    <row r="176" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="166"/>
+      <c r="D176" s="19"/>
+      <c r="F176" s="87"/>
+    </row>
+    <row r="177" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="166"/>
+      <c r="C177" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F173" s="87"/>
-    </row>
-    <row r="174" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="34"/>
-      <c r="C174" s="57">
-        <f>C171</f>
+      <c r="F177" s="87"/>
+    </row>
+    <row r="178" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="34"/>
+      <c r="C178" s="57">
+        <f>C175</f>
         <v>129858</v>
       </c>
-      <c r="D174" s="83" t="s">
+      <c r="D178" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="F174" s="87"/>
-    </row>
-    <row r="175" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="166"/>
-      <c r="C175" s="153">
+      <c r="F178" s="87"/>
+    </row>
+    <row r="179" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="166"/>
+      <c r="C179" s="153">
         <f>386064</f>
         <v>386064</v>
       </c>
-      <c r="D175" s="83" t="s">
+      <c r="D179" s="83" t="s">
         <v>157</v>
-      </c>
-      <c r="F175" s="87"/>
-    </row>
-    <row r="176" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="166"/>
-      <c r="C176" s="62">
-        <f>C174/C175</f>
-        <v>0.33636391893572049</v>
-      </c>
-      <c r="D176" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="F176" s="87"/>
-    </row>
-    <row r="177" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="166"/>
-      <c r="F177" s="87"/>
-    </row>
-    <row r="178" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="166"/>
-      <c r="F178" s="87"/>
-    </row>
-    <row r="179" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="C179" s="55" t="s">
-        <v>132</v>
       </c>
       <c r="F179" s="87"/>
     </row>
     <row r="180" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="166"/>
-      <c r="C180" s="158">
-        <v>66064</v>
-      </c>
-      <c r="D180" s="65" t="s">
-        <v>151</v>
+      <c r="C180" s="62">
+        <f>C178/C179</f>
+        <v>0.33636391893572049</v>
+      </c>
+      <c r="D180" s="62" t="s">
+        <v>158</v>
       </c>
       <c r="F180" s="87"/>
     </row>
     <row r="181" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="166"/>
-      <c r="D181" s="19"/>
       <c r="F181" s="87"/>
     </row>
     <row r="182" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
@@ -4239,358 +4277,352 @@
     </row>
     <row r="183" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="141" t="s">
-        <v>106</v>
-      </c>
-      <c r="C183" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D183" s="83" t="s">
-        <v>173</v>
+        <v>105</v>
+      </c>
+      <c r="C183" s="55" t="s">
+        <v>132</v>
       </c>
       <c r="F183" s="87"/>
     </row>
     <row r="184" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="34"/>
-      <c r="C184" s="59"/>
-      <c r="D184" s="83" t="s">
-        <v>174</v>
+      <c r="B184" s="166"/>
+      <c r="C184" s="158">
+        <v>66064</v>
+      </c>
+      <c r="D184" s="65" t="s">
+        <v>151</v>
       </c>
       <c r="F184" s="87"/>
     </row>
     <row r="185" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="165"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="83" t="s">
-        <v>161</v>
-      </c>
+      <c r="B185" s="166"/>
+      <c r="D185" s="19"/>
       <c r="F185" s="87"/>
     </row>
     <row r="186" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="166"/>
-      <c r="C186" s="152"/>
-      <c r="D186" s="86" t="s">
-        <v>167</v>
-      </c>
       <c r="F186" s="87"/>
     </row>
     <row r="187" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="166"/>
+      <c r="B187" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="59" t="s">
+        <v>133</v>
+      </c>
       <c r="D187" s="83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F187" s="87"/>
     </row>
     <row r="188" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="166"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="59"/>
+      <c r="D188" s="83" t="s">
+        <v>174</v>
+      </c>
       <c r="F188" s="87"/>
     </row>
     <row r="189" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="166"/>
-      <c r="C189" s="57">
-        <v>22899</v>
-      </c>
+      <c r="B189" s="165"/>
+      <c r="C189" s="60"/>
       <c r="D189" s="83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F189" s="87"/>
     </row>
     <row r="190" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="166"/>
-      <c r="C190" s="57">
-        <v>25251</v>
-      </c>
+      <c r="C190" s="152"/>
       <c r="D190" s="86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F190" s="87"/>
     </row>
     <row r="191" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="166"/>
-      <c r="C191" s="57">
+      <c r="D191" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F191" s="87"/>
+    </row>
+    <row r="192" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="166"/>
+      <c r="F192" s="87"/>
+    </row>
+    <row r="193" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="166"/>
+      <c r="C193" s="57">
+        <v>22899</v>
+      </c>
+      <c r="D193" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="F193" s="87"/>
+    </row>
+    <row r="194" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="166"/>
+      <c r="C194" s="57">
+        <v>25251</v>
+      </c>
+      <c r="D194" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F194" s="87"/>
+    </row>
+    <row r="195" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="166"/>
+      <c r="C195" s="57">
         <f>-(40140-5096)</f>
         <v>-35044</v>
       </c>
-      <c r="D191" s="83" t="s">
+      <c r="D195" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="F191" s="87"/>
-    </row>
-    <row r="192" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="166"/>
-      <c r="C192" s="57">
-        <f>-(0.1184)*C189</f>
-        <v>-2711.2416000000003</v>
-      </c>
-      <c r="D192" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="F192" s="87"/>
-    </row>
-    <row r="193" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="166"/>
-      <c r="C193" s="153">
-        <v>13481</v>
-      </c>
-      <c r="D193" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="F193" s="87"/>
-    </row>
-    <row r="194" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="166"/>
-      <c r="C194" s="158">
-        <f>SUM(C189:C193)</f>
-        <v>23875.758399999999</v>
-      </c>
-      <c r="D194" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F194" s="87"/>
-    </row>
-    <row r="195" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="166"/>
-      <c r="C195" s="152"/>
       <c r="F195" s="87"/>
     </row>
     <row r="196" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B196" s="166"/>
-      <c r="C196" s="152"/>
+      <c r="C196" s="57">
+        <f>-(0.1184)*C193</f>
+        <v>-2711.2416000000003</v>
+      </c>
+      <c r="D196" s="83" t="s">
+        <v>175</v>
+      </c>
       <c r="F196" s="87"/>
     </row>
     <row r="197" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="166"/>
-      <c r="C197" s="152"/>
-      <c r="D197" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="E197" s="61"/>
-      <c r="F197" s="168"/>
+      <c r="C197" s="153">
+        <v>13481</v>
+      </c>
+      <c r="D197" s="179" t="s">
+        <v>194</v>
+      </c>
+      <c r="E197" s="180"/>
+      <c r="F197" s="181"/>
     </row>
     <row r="198" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B198" s="166"/>
-      <c r="C198" s="57">
-        <v>66064</v>
-      </c>
-      <c r="D198" s="83" t="s">
-        <v>189</v>
+      <c r="C198" s="158">
+        <f>SUM(C193:C197)</f>
+        <v>23875.758399999999</v>
+      </c>
+      <c r="D198" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="F198" s="87"/>
     </row>
     <row r="199" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="166"/>
-      <c r="C199" s="153">
+      <c r="C199" s="152"/>
+      <c r="F199" s="87"/>
+    </row>
+    <row r="200" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="166"/>
+      <c r="C200" s="152"/>
+      <c r="F200" s="87"/>
+    </row>
+    <row r="201" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="166"/>
+      <c r="C201" s="152"/>
+      <c r="D201" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E201" s="61"/>
+      <c r="F201" s="168"/>
+    </row>
+    <row r="202" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="166"/>
+      <c r="C202" s="57">
+        <v>66064</v>
+      </c>
+      <c r="D202" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F202" s="87"/>
+    </row>
+    <row r="203" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="166"/>
+      <c r="C203" s="153">
         <f>-(40140-5096)</f>
         <v>-35044</v>
       </c>
-      <c r="D199" s="83" t="s">
+      <c r="D203" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="F199" s="87"/>
-    </row>
-    <row r="200" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="165"/>
-      <c r="C200" s="158">
-        <f>C199+C198</f>
+      <c r="F203" s="87"/>
+    </row>
+    <row r="204" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="165"/>
+      <c r="C204" s="158">
+        <f>C203+C202</f>
         <v>31020</v>
       </c>
-      <c r="D200" s="117" t="s">
+      <c r="D204" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="F200" s="87"/>
-    </row>
-    <row r="201" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="165"/>
-      <c r="C201" s="152"/>
-      <c r="D201" s="83" t="s">
+      <c r="F204" s="87"/>
+    </row>
+    <row r="205" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="165"/>
+      <c r="C205" s="152"/>
+      <c r="D205" s="83" t="s">
         <v>166</v>
-      </c>
-      <c r="F201" s="87"/>
-    </row>
-    <row r="202" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="165"/>
-      <c r="C202" s="152"/>
-      <c r="D202" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="F202" s="87"/>
-    </row>
-    <row r="203" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="34"/>
-      <c r="C203" s="152"/>
-      <c r="F203" s="87"/>
-      <c r="G203" s="61"/>
-      <c r="H203" s="61"/>
-    </row>
-    <row r="204" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="166"/>
-      <c r="C204" s="152"/>
-      <c r="D204" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F204" s="87"/>
-    </row>
-    <row r="205" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="166"/>
-      <c r="C205" s="152"/>
-      <c r="D205" s="53" t="s">
-        <v>170</v>
       </c>
       <c r="F205" s="87"/>
     </row>
     <row r="206" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="165"/>
-      <c r="C206" s="62"/>
-      <c r="D206" s="19"/>
+      <c r="C206" s="152"/>
+      <c r="D206" s="83" t="s">
+        <v>187</v>
+      </c>
       <c r="F206" s="87"/>
     </row>
     <row r="207" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B207" s="34"/>
+      <c r="C207" s="152"/>
       <c r="F207" s="87"/>
+      <c r="G207" s="61"/>
+      <c r="H207" s="61"/>
     </row>
     <row r="208" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C208" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D208" s="83" t="s">
-        <v>181</v>
+      <c r="B208" s="166"/>
+      <c r="C208" s="152"/>
+      <c r="D208" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="F208" s="87"/>
     </row>
     <row r="209" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="166"/>
-      <c r="C209" s="57">
+      <c r="C209" s="152"/>
+      <c r="D209" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F209" s="87"/>
+    </row>
+    <row r="210" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="165"/>
+      <c r="C210" s="62"/>
+      <c r="D210" s="19"/>
+      <c r="F210" s="87"/>
+    </row>
+    <row r="211" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="34"/>
+      <c r="F211" s="87"/>
+    </row>
+    <row r="212" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C212" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D212" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="F212" s="87"/>
+    </row>
+    <row r="213" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="166"/>
+      <c r="C213" s="57">
         <v>24542</v>
       </c>
-      <c r="D209" s="56" t="s">
+      <c r="D213" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F213" s="87"/>
+    </row>
+    <row r="214" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="34"/>
+      <c r="C214" s="153">
+        <v>386064</v>
+      </c>
+      <c r="D214" s="159" t="s">
         <v>179</v>
-      </c>
-      <c r="F209" s="87"/>
-    </row>
-    <row r="210" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="34"/>
-      <c r="C210" s="153">
-        <v>386064</v>
-      </c>
-      <c r="D210" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="F210" s="87"/>
-    </row>
-    <row r="211" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="165"/>
-      <c r="C211" s="160">
-        <f>(365*C209)/C210</f>
-        <v>23.202966347548593</v>
-      </c>
-      <c r="D211" s="161" t="s">
-        <v>178</v>
-      </c>
-      <c r="F211" s="87"/>
-    </row>
-    <row r="212" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="165"/>
-      <c r="F212" s="87"/>
-    </row>
-    <row r="213" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="165"/>
-      <c r="C213" s="117" t="s">
-        <v>182</v>
-      </c>
-      <c r="F213" s="87"/>
-    </row>
-    <row r="214" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="165"/>
-      <c r="C214" s="57">
-        <v>72539</v>
-      </c>
-      <c r="D214" s="56" t="s">
-        <v>183</v>
       </c>
       <c r="F214" s="87"/>
     </row>
     <row r="215" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B215" s="165"/>
-      <c r="C215" s="153">
-        <v>386064</v>
-      </c>
-      <c r="D215" s="159" t="s">
-        <v>180</v>
+      <c r="C215" s="160">
+        <f>(365*C213)/C214</f>
+        <v>23.202966347548593</v>
+      </c>
+      <c r="D215" s="161" t="s">
+        <v>177</v>
       </c>
       <c r="F215" s="87"/>
     </row>
     <row r="216" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="165"/>
-      <c r="C216" s="160">
-        <f>(365*C214)/C215</f>
-        <v>68.581206742923456</v>
-      </c>
-      <c r="D216" s="161" t="s">
-        <v>178</v>
-      </c>
       <c r="F216" s="87"/>
     </row>
     <row r="217" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="165"/>
-      <c r="C217" s="57"/>
+      <c r="C217" s="117" t="s">
+        <v>181</v>
+      </c>
       <c r="F217" s="87"/>
     </row>
     <row r="218" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="165"/>
-      <c r="C218" s="83" t="s">
-        <v>184</v>
+      <c r="C218" s="57">
+        <v>72539</v>
+      </c>
+      <c r="D218" s="56" t="s">
+        <v>182</v>
       </c>
       <c r="F218" s="87"/>
     </row>
-    <row r="219" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="169"/>
-      <c r="C219" s="170"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6"/>
-      <c r="F219" s="7"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B220" s="9"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
-      <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B221" s="9"/>
-      <c r="C221" s="20"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
-      <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B222" s="9"/>
-      <c r="C222" s="16"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B223" s="18"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
+    <row r="219" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="165"/>
+      <c r="C219" s="153">
+        <v>233307</v>
+      </c>
+      <c r="D219" s="178" t="s">
+        <v>189</v>
+      </c>
+      <c r="E219" s="180"/>
+      <c r="F219" s="87"/>
+    </row>
+    <row r="220" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="165"/>
+      <c r="C220" s="160">
+        <f>(365*C218)/C219</f>
+        <v>113.48452896826927</v>
+      </c>
+      <c r="D220" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="F220" s="87"/>
+    </row>
+    <row r="221" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B221" s="165"/>
+      <c r="C221" s="57"/>
+      <c r="F221" s="87"/>
+    </row>
+    <row r="222" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B222" s="165"/>
+      <c r="C222" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="F222" s="87"/>
+    </row>
+    <row r="223" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="169"/>
+      <c r="C223" s="170"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="7"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B224" s="4"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -4599,8 +4631,8 @@
       <c r="H224" s="4"/>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="20"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
@@ -4608,8 +4640,8 @@
       <c r="H225" s="4"/>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="16"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
@@ -4617,18 +4649,38 @@
       <c r="H226" s="4"/>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B227" s="18"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
@@ -4640,11 +4692,27 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D112:E112"/>
-    <mergeCell ref="C135:D137"/>
-    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C139:D141"/>
+    <mergeCell ref="C138:D138"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/homeworks/CF_HW_5_2021_Ans.xlsx
+++ b/homeworks/CF_HW_5_2021_Ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B287B-D7ED-0745-9D50-481DB219A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC7FF9-FB48-5643-8B54-08BD4BAF5ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="500" windowWidth="24060" windowHeight="25020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27440" yWindow="460" windowWidth="20840" windowHeight="25020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="199">
   <si>
     <t>Rate</t>
   </si>
@@ -814,13 +814,19 @@
     <t>For this calculation, I just use the shares on the BS.</t>
   </si>
   <si>
-    <t>Probably better to use change in Cur Ass - Cur Liab.  Before I jused the net changes in assets and liabilities from the CFS</t>
-  </si>
-  <si>
     <t>This number is ok, but since it includes estimated forfeited stk, I might not use it.</t>
   </si>
   <si>
     <t xml:space="preserve">Book value isn't generally isn't too useful, especially if the stock is publicly traded. </t>
+  </si>
+  <si>
+    <t>S&amp;M Expenses (operating exps minus COS-Tech &amp; Content)</t>
+  </si>
+  <si>
+    <t>Note: AMZN doesn't break out R&amp;D, which is included in Tech &amp; Content.  P. 28.   It may be appropriate to exclude Tech &amp; Content.</t>
+  </si>
+  <si>
+    <t>Probably better to use change in Cur Ass - Cur Liab.  Before I used the net changes in assets and liabilities from the CFS.</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1111,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1504,16 +1510,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1979,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q236"/>
+  <dimension ref="B2:Q247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView showGridLines="0" topLeftCell="B170" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3782,25 +3792,25 @@
       <c r="C125" s="83"/>
       <c r="F125" s="87"/>
     </row>
-    <row r="126" spans="2:13" s="24" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:13" s="24" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="B126" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="D126" s="182" t="s">
+      <c r="D126" s="183" t="s">
         <v>191</v>
       </c>
-      <c r="E126" s="140"/>
-      <c r="F126" s="167"/>
+      <c r="E126" s="146"/>
+      <c r="F126" s="184"/>
     </row>
     <row r="127" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B127" s="141"/>
       <c r="C127" s="175"/>
-      <c r="D127" s="175"/>
-      <c r="E127" s="175"/>
-      <c r="F127" s="167"/>
+      <c r="D127" s="146"/>
+      <c r="E127" s="146"/>
+      <c r="F127" s="184"/>
     </row>
     <row r="128" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B128" s="141"/>
@@ -3808,26 +3818,26 @@
       <c r="D128" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="E128" s="182"/>
-      <c r="F128" s="183"/>
+      <c r="E128" s="183"/>
+      <c r="F128" s="185"/>
     </row>
     <row r="129" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B129" s="141"/>
       <c r="C129" s="175"/>
       <c r="D129" s="180" t="s">
-        <v>195</v>
-      </c>
-      <c r="E129" s="182"/>
-      <c r="F129" s="183"/>
+        <v>194</v>
+      </c>
+      <c r="E129" s="183"/>
+      <c r="F129" s="185"/>
     </row>
     <row r="130" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B130" s="141"/>
       <c r="C130" s="175"/>
       <c r="D130" s="180" t="s">
-        <v>196</v>
-      </c>
-      <c r="E130" s="182"/>
-      <c r="F130" s="183"/>
+        <v>195</v>
+      </c>
+      <c r="E130" s="183"/>
+      <c r="F130" s="185"/>
     </row>
     <row r="131" spans="2:6" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B131" s="166"/>
@@ -4269,444 +4279,537 @@
     </row>
     <row r="181" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="166"/>
+      <c r="C181" s="62"/>
+      <c r="D181" s="62"/>
       <c r="F181" s="87"/>
     </row>
     <row r="182" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B182" s="166"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="62"/>
       <c r="F182" s="87"/>
     </row>
     <row r="183" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="C183" s="55" t="s">
-        <v>132</v>
-      </c>
+      <c r="B183" s="166"/>
+      <c r="C183" s="62"/>
+      <c r="D183" s="62"/>
       <c r="F183" s="87"/>
     </row>
     <row r="184" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="166"/>
-      <c r="C184" s="158">
-        <v>66064</v>
-      </c>
-      <c r="D184" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="F184" s="87"/>
+      <c r="C184" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D184" s="180" t="s">
+        <v>197</v>
+      </c>
+      <c r="E184" s="180"/>
+      <c r="F184" s="182"/>
     </row>
     <row r="185" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B185" s="166"/>
-      <c r="D185" s="19"/>
-      <c r="F185" s="87"/>
+      <c r="C185" s="158">
+        <f>363165-233307-42741</f>
+        <v>87117</v>
+      </c>
+      <c r="D185" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185" s="180"/>
+      <c r="F185" s="182"/>
     </row>
     <row r="186" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="166"/>
+      <c r="D186" s="19"/>
       <c r="F186" s="87"/>
     </row>
     <row r="187" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="141" t="s">
-        <v>106</v>
-      </c>
-      <c r="C187" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D187" s="83" t="s">
-        <v>173</v>
+      <c r="B187" s="166"/>
+      <c r="C187" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="F187" s="87"/>
     </row>
     <row r="188" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="34"/>
-      <c r="C188" s="59"/>
+      <c r="B188" s="166"/>
+      <c r="C188" s="57">
+        <f>C185</f>
+        <v>87117</v>
+      </c>
       <c r="D188" s="83" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F188" s="87"/>
     </row>
     <row r="189" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="165"/>
-      <c r="C189" s="60"/>
+      <c r="B189" s="166"/>
+      <c r="C189" s="153">
+        <f>386064</f>
+        <v>386064</v>
+      </c>
       <c r="D189" s="83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F189" s="87"/>
     </row>
     <row r="190" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="166"/>
-      <c r="C190" s="152"/>
-      <c r="D190" s="86" t="s">
-        <v>167</v>
+      <c r="C190" s="62">
+        <f>C188/C189</f>
+        <v>0.22565429566082307</v>
+      </c>
+      <c r="D190" s="62" t="s">
+        <v>158</v>
       </c>
       <c r="F190" s="87"/>
     </row>
     <row r="191" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="166"/>
-      <c r="D191" s="83" t="s">
-        <v>171</v>
-      </c>
+      <c r="C191" s="62"/>
+      <c r="D191" s="62"/>
       <c r="F191" s="87"/>
     </row>
     <row r="192" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="166"/>
       <c r="F192" s="87"/>
     </row>
-    <row r="193" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="166"/>
-      <c r="C193" s="57">
+      <c r="F193" s="87"/>
+    </row>
+    <row r="194" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="C194" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F194" s="87"/>
+    </row>
+    <row r="195" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="166"/>
+      <c r="C195" s="158">
+        <v>66064</v>
+      </c>
+      <c r="D195" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F195" s="87"/>
+    </row>
+    <row r="196" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="166"/>
+      <c r="D196" s="19"/>
+      <c r="F196" s="87"/>
+    </row>
+    <row r="197" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="166"/>
+      <c r="F197" s="87"/>
+    </row>
+    <row r="198" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D198" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F198" s="87"/>
+    </row>
+    <row r="199" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="34"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="F199" s="87"/>
+    </row>
+    <row r="200" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="165"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F200" s="87"/>
+    </row>
+    <row r="201" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="166"/>
+      <c r="C201" s="152"/>
+      <c r="D201" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="F201" s="87"/>
+    </row>
+    <row r="202" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="166"/>
+      <c r="D202" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F202" s="87"/>
+    </row>
+    <row r="203" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="166"/>
+      <c r="F203" s="87"/>
+    </row>
+    <row r="204" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="166"/>
+      <c r="C204" s="57">
         <v>22899</v>
       </c>
-      <c r="D193" s="83" t="s">
+      <c r="D204" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="F193" s="87"/>
-    </row>
-    <row r="194" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="166"/>
-      <c r="C194" s="57">
+      <c r="F204" s="87"/>
+    </row>
+    <row r="205" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="166"/>
+      <c r="C205" s="57">
         <v>25251</v>
       </c>
-      <c r="D194" s="86" t="s">
+      <c r="D205" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="F194" s="87"/>
-    </row>
-    <row r="195" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="166"/>
-      <c r="C195" s="57">
+      <c r="F205" s="87"/>
+    </row>
+    <row r="206" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="166"/>
+      <c r="C206" s="57">
         <f>-(40140-5096)</f>
         <v>-35044</v>
       </c>
-      <c r="D195" s="83" t="s">
+      <c r="D206" s="83" t="s">
         <v>164</v>
       </c>
-      <c r="F195" s="87"/>
-    </row>
-    <row r="196" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="166"/>
-      <c r="C196" s="57">
-        <f>-(0.1184)*C193</f>
+      <c r="F206" s="87"/>
+    </row>
+    <row r="207" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="166"/>
+      <c r="C207" s="57">
+        <f>-(0.1184)*C204</f>
         <v>-2711.2416000000003</v>
       </c>
-      <c r="D196" s="83" t="s">
+      <c r="D207" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="F196" s="87"/>
-    </row>
-    <row r="197" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="166"/>
-      <c r="C197" s="153">
-        <v>13481</v>
-      </c>
-      <c r="D197" s="179" t="s">
-        <v>194</v>
-      </c>
-      <c r="E197" s="180"/>
-      <c r="F197" s="181"/>
-    </row>
-    <row r="198" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="166"/>
-      <c r="C198" s="158">
-        <f>SUM(C193:C197)</f>
-        <v>23875.758399999999</v>
-      </c>
-      <c r="D198" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="F198" s="87"/>
-    </row>
-    <row r="199" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="166"/>
-      <c r="C199" s="152"/>
-      <c r="F199" s="87"/>
-    </row>
-    <row r="200" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="166"/>
-      <c r="C200" s="152"/>
-      <c r="F200" s="87"/>
-    </row>
-    <row r="201" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="166"/>
-      <c r="C201" s="152"/>
-      <c r="D201" s="83" t="s">
-        <v>168</v>
-      </c>
-      <c r="E201" s="61"/>
-      <c r="F201" s="168"/>
-    </row>
-    <row r="202" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="166"/>
-      <c r="C202" s="57">
-        <v>66064</v>
-      </c>
-      <c r="D202" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="F202" s="87"/>
-    </row>
-    <row r="203" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="166"/>
-      <c r="C203" s="153">
-        <f>-(40140-5096)</f>
-        <v>-35044</v>
-      </c>
-      <c r="D203" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="F203" s="87"/>
-    </row>
-    <row r="204" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="165"/>
-      <c r="C204" s="158">
-        <f>C203+C202</f>
-        <v>31020</v>
-      </c>
-      <c r="D204" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="F204" s="87"/>
-    </row>
-    <row r="205" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="165"/>
-      <c r="C205" s="152"/>
-      <c r="D205" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="F205" s="87"/>
-    </row>
-    <row r="206" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="165"/>
-      <c r="C206" s="152"/>
-      <c r="D206" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="F206" s="87"/>
-    </row>
-    <row r="207" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="34"/>
-      <c r="C207" s="152"/>
       <c r="F207" s="87"/>
-      <c r="G207" s="61"/>
-      <c r="H207" s="61"/>
-    </row>
-    <row r="208" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="208" spans="2:6" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B208" s="166"/>
-      <c r="C208" s="152"/>
-      <c r="D208" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F208" s="87"/>
+      <c r="C208" s="153">
+        <f>(8522-6348)</f>
+        <v>2174</v>
+      </c>
+      <c r="D208" s="180" t="s">
+        <v>198</v>
+      </c>
+      <c r="E208" s="178"/>
+      <c r="F208" s="179"/>
     </row>
     <row r="209" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="166"/>
-      <c r="C209" s="152"/>
-      <c r="D209" s="53" t="s">
-        <v>170</v>
+      <c r="C209" s="158">
+        <f>SUM(C204:C208)</f>
+        <v>12568.758399999999</v>
+      </c>
+      <c r="D209" s="65" t="s">
+        <v>186</v>
       </c>
       <c r="F209" s="87"/>
     </row>
     <row r="210" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="165"/>
-      <c r="C210" s="62"/>
-      <c r="D210" s="19"/>
+      <c r="B210" s="166"/>
+      <c r="C210" s="152"/>
       <c r="F210" s="87"/>
     </row>
     <row r="211" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="34"/>
+      <c r="B211" s="166"/>
+      <c r="C211" s="152"/>
       <c r="F211" s="87"/>
     </row>
     <row r="212" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C212" s="83" t="s">
-        <v>176</v>
-      </c>
+      <c r="B212" s="166"/>
+      <c r="C212" s="152"/>
       <c r="D212" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="F212" s="87"/>
+        <v>168</v>
+      </c>
+      <c r="E212" s="61"/>
+      <c r="F212" s="168"/>
     </row>
     <row r="213" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B213" s="166"/>
       <c r="C213" s="57">
-        <v>24542</v>
-      </c>
-      <c r="D213" s="56" t="s">
-        <v>178</v>
+        <v>66064</v>
+      </c>
+      <c r="D213" s="83" t="s">
+        <v>185</v>
       </c>
       <c r="F213" s="87"/>
     </row>
     <row r="214" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="34"/>
+      <c r="B214" s="166"/>
       <c r="C214" s="153">
-        <v>386064</v>
-      </c>
-      <c r="D214" s="159" t="s">
-        <v>179</v>
+        <f>-(40140-5096)</f>
+        <v>-35044</v>
+      </c>
+      <c r="D214" s="83" t="s">
+        <v>163</v>
       </c>
       <c r="F214" s="87"/>
     </row>
     <row r="215" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B215" s="165"/>
-      <c r="C215" s="160">
-        <f>(365*C213)/C214</f>
-        <v>23.202966347548593</v>
-      </c>
-      <c r="D215" s="161" t="s">
-        <v>177</v>
+      <c r="C215" s="158">
+        <f>C214+C213</f>
+        <v>31020</v>
+      </c>
+      <c r="D215" s="117" t="s">
+        <v>162</v>
       </c>
       <c r="F215" s="87"/>
     </row>
     <row r="216" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="165"/>
+      <c r="C216" s="152"/>
+      <c r="D216" s="83" t="s">
+        <v>166</v>
+      </c>
       <c r="F216" s="87"/>
     </row>
     <row r="217" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="165"/>
-      <c r="C217" s="117" t="s">
-        <v>181</v>
+      <c r="C217" s="152"/>
+      <c r="D217" s="83" t="s">
+        <v>187</v>
       </c>
       <c r="F217" s="87"/>
     </row>
     <row r="218" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="165"/>
-      <c r="C218" s="57">
-        <v>72539</v>
-      </c>
-      <c r="D218" s="56" t="s">
-        <v>182</v>
-      </c>
+      <c r="B218" s="34"/>
+      <c r="C218" s="152"/>
       <c r="F218" s="87"/>
+      <c r="G218" s="61"/>
+      <c r="H218" s="61"/>
     </row>
     <row r="219" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="165"/>
-      <c r="C219" s="153">
-        <v>233307</v>
-      </c>
-      <c r="D219" s="178" t="s">
-        <v>189</v>
-      </c>
-      <c r="E219" s="180"/>
+      <c r="B219" s="166"/>
+      <c r="C219" s="152"/>
+      <c r="D219" s="53" t="s">
+        <v>169</v>
+      </c>
       <c r="F219" s="87"/>
     </row>
     <row r="220" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="165"/>
-      <c r="C220" s="160">
-        <f>(365*C218)/C219</f>
-        <v>113.48452896826927</v>
-      </c>
-      <c r="D220" s="161" t="s">
-        <v>177</v>
+      <c r="B220" s="166"/>
+      <c r="C220" s="152"/>
+      <c r="D220" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="F220" s="87"/>
     </row>
     <row r="221" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B221" s="165"/>
-      <c r="C221" s="57"/>
+      <c r="C221" s="62"/>
+      <c r="D221" s="19"/>
       <c r="F221" s="87"/>
     </row>
     <row r="222" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B222" s="165"/>
-      <c r="C222" s="83" t="s">
+      <c r="B222" s="34"/>
+      <c r="F222" s="87"/>
+    </row>
+    <row r="223" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B223" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D223" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="F223" s="87"/>
+    </row>
+    <row r="224" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B224" s="166"/>
+      <c r="C224" s="57">
+        <v>24542</v>
+      </c>
+      <c r="D224" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="F224" s="87"/>
+    </row>
+    <row r="225" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B225" s="34"/>
+      <c r="C225" s="153">
+        <v>386064</v>
+      </c>
+      <c r="D225" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="F225" s="87"/>
+    </row>
+    <row r="226" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B226" s="165"/>
+      <c r="C226" s="160">
+        <f>(365*C224)/C225</f>
+        <v>23.202966347548593</v>
+      </c>
+      <c r="D226" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="F226" s="87"/>
+    </row>
+    <row r="227" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="165"/>
+      <c r="F227" s="87"/>
+    </row>
+    <row r="228" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="165"/>
+      <c r="C228" s="117" t="s">
+        <v>181</v>
+      </c>
+      <c r="F228" s="87"/>
+    </row>
+    <row r="229" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B229" s="165"/>
+      <c r="C229" s="57">
+        <v>72539</v>
+      </c>
+      <c r="D229" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="F229" s="87"/>
+    </row>
+    <row r="230" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="165"/>
+      <c r="C230" s="153">
+        <v>233307</v>
+      </c>
+      <c r="D230" s="181" t="s">
+        <v>189</v>
+      </c>
+      <c r="E230" s="178"/>
+      <c r="F230" s="87"/>
+    </row>
+    <row r="231" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="165"/>
+      <c r="C231" s="160">
+        <f>(365*C229)/C230</f>
+        <v>113.48452896826927</v>
+      </c>
+      <c r="D231" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="F231" s="87"/>
+    </row>
+    <row r="232" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B232" s="165"/>
+      <c r="C232" s="57"/>
+      <c r="F232" s="87"/>
+    </row>
+    <row r="233" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B233" s="165"/>
+      <c r="C233" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="F222" s="87"/>
-    </row>
-    <row r="223" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="169"/>
-      <c r="C223" s="170"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="7"/>
-      <c r="G223" s="4"/>
-      <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B224" s="9"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
-      <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-      <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B225" s="9"/>
-      <c r="C225" s="20"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="4"/>
-      <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B226" s="9"/>
-      <c r="C226" s="16"/>
-      <c r="D226" s="4"/>
-      <c r="E226" s="4"/>
-      <c r="F226" s="4"/>
-      <c r="G226" s="4"/>
-      <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B227" s="18"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="4"/>
-      <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-      <c r="G227" s="4"/>
-      <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
-      <c r="G228" s="4"/>
-      <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
-      <c r="G229" s="4"/>
-      <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
-      <c r="G230" s="4"/>
-      <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G231" s="4"/>
-      <c r="H231" s="4"/>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G232" s="4"/>
-      <c r="H232" s="4"/>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G233" s="4"/>
-      <c r="H233" s="4"/>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F233" s="87"/>
+    </row>
+    <row r="234" spans="2:8" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="169"/>
+      <c r="C234" s="170"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="7"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B235" s="9"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B236" s="9"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B237" s="9"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B238" s="18"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4724,7 +4827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:N108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
